--- a/input/23M2/科技公司_产品中心_工作周报_邓承熹_202302_v1.0.xlsx
+++ b/input/23M2/科技公司_产品中心_工作周报_邓承熹_202302_v1.0.xlsx
@@ -39,6 +39,36 @@
   <si>
     <t/>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>主数据系统（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MDM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t/>
+    <r>
       <t>IOT</t>
     </r>
     <r>
@@ -87,36 +117,6 @@
   <si>
     <t/>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>主数据系统（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>MDM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <t/>
-    <r>
       <t>PMO</t>
     </r>
     <r>
@@ -133,6 +133,36 @@
     <t/>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>其他工作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>不属于以上工作，请选此项）</t>
+    </r>
+  </si>
+  <si>
+    <t/>
+    <r>
+      <rPr>
         <b val="true"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
@@ -335,60 +365,30 @@
 </t>
     </r>
   </si>
-  <si>
-    <t/>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>其他工作</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>不属于以上工作，请选此项）</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="57">
-    <numFmt numFmtId="164" formatCode="0%"/>
-    <numFmt numFmtId="165" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="0%"/>
+    <numFmt numFmtId="168" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="169" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="170" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="171" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="172" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="173" formatCode="0%"/>
-    <numFmt numFmtId="174" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="172" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="173" formatCode="m/d/yy"/>
+    <numFmt numFmtId="174" formatCode="0%"/>
     <numFmt numFmtId="175" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="180" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="181" formatCode="m/d/yy"/>
+    <numFmt numFmtId="181" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="182" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="183" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="184" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -421,8 +421,8 @@
     <numFmt numFmtId="211" formatCode="@"/>
     <numFmt numFmtId="212" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="213" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="214" formatCode="@"/>
-    <numFmt numFmtId="215" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="214" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="215" formatCode="@"/>
     <numFmt numFmtId="216" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="217" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="218" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -438,53 +438,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -527,32 +482,23 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b val="true"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -619,13 +565,18 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -644,8 +595,57 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -686,8 +686,28 @@
       <family val="2"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -699,26 +719,6 @@
     </font>
     <font>
       <sz val="9.5"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -778,6 +778,7 @@
       <family val="2"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -796,7 +797,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -884,36 +884,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2DBDB"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF0C0C0C"/>
         <bgColor/>
       </patternFill>
@@ -921,12 +891,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0C0C0C"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -962,6 +926,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2DBDB"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF99CCFF"/>
         <bgColor/>
       </patternFill>
@@ -980,13 +980,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -1078,8 +1078,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -1107,6 +1111,19 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -1133,155 +1150,7 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -1308,54 +1177,194 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1382,6 +1391,227 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1407,236 +1637,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -1719,6 +1719,47 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -1736,47 +1777,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1854,35 +1854,35 @@
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="1" fillId="2" fontId="1" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="2" fillId="3" fontId="2" numFmtId="165" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="166" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="166" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="167" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="5" fillId="2" fontId="5" numFmtId="167" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="168" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="8" fillId="4" fontId="8" numFmtId="169" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="6" fillId="3" fontId="6" numFmtId="168" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="9" fillId="5" fontId="9" numFmtId="170" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="7" fillId="4" fontId="7" numFmtId="169" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="10" fillId="6" fontId="10" numFmtId="171" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="8" fillId="5" fontId="8" numFmtId="170" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="9" fillId="6" fontId="9" numFmtId="171" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="11" fillId="0" fontId="11" numFmtId="172" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1890,70 +1890,70 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="12" fillId="0" fontId="12" numFmtId="173" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="13" fillId="7" fontId="13" numFmtId="174" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="13" fillId="0" fontId="13" numFmtId="174" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="14" fillId="8" fontId="14" numFmtId="175" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="14" fillId="7" fontId="14" numFmtId="175" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="9" fontId="15" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="15" fillId="0" fontId="15" numFmtId="176" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="16" fillId="10" fontId="16" numFmtId="176" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="16" fillId="8" fontId="16" numFmtId="177" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="17" fillId="11" fontId="17" numFmtId="177" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="17" fillId="0" fontId="17" numFmtId="178" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="18" fillId="12" fontId="18" numFmtId="178" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="18" fillId="9" fontId="18" numFmtId="179" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="19" fillId="10" fontId="19" numFmtId="180" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="20" fillId="0" fontId="20" numFmtId="181" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="21" fillId="11" fontId="21" numFmtId="182" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="19" fillId="13" fontId="19" numFmtId="179" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="22" fillId="12" fontId="22" numFmtId="183" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="20" fillId="0" fontId="20" numFmtId="180" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="23" fillId="13" fontId="23" numFmtId="184" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="21" fillId="0" fontId="21" numFmtId="181" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="24" fillId="14" fontId="24" numFmtId="185" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="22" fillId="0" fontId="22" numFmtId="182" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="25" fillId="0" fontId="25" numFmtId="186" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="23" fillId="14" fontId="23" numFmtId="183" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="24" fillId="0" fontId="24" numFmtId="184" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="25" fillId="0" fontId="25" numFmtId="185" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="26" fillId="0" fontId="26" numFmtId="187" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="26" fillId="0" fontId="26" numFmtId="186" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="27" fillId="0" fontId="27" numFmtId="188" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="27" fillId="0" fontId="27" numFmtId="187" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="28" fillId="0" fontId="28" numFmtId="189" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="28" fillId="15" fontId="28" numFmtId="188" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="29" fillId="0" fontId="29" numFmtId="189" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="29" fillId="15" fontId="29" numFmtId="190" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="30" fillId="0" fontId="30" numFmtId="190" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="30" fillId="16" fontId="30" numFmtId="191" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="31" fillId="16" fontId="31" numFmtId="191" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="31" fillId="17" fontId="31" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="32" fillId="0" fontId="32" numFmtId="192" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="33" fillId="0" fontId="33" numFmtId="193" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="34" fillId="17" fontId="34" numFmtId="194" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="34" fillId="0" fontId="34" numFmtId="194" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="35" fillId="0" fontId="35" numFmtId="195" xfId="0">
@@ -1963,10 +1963,10 @@
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="37" fillId="0" fontId="37" numFmtId="197" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="38" fillId="0" fontId="38" numFmtId="198" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="39" fillId="18" fontId="39" numFmtId="199" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -1975,21 +1975,21 @@
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="41" fillId="20" fontId="41" numFmtId="201" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="42" fillId="0" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="42" fillId="0" fontId="42" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="43" fillId="21" fontId="43" numFmtId="202" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="44" fillId="22" fontId="44" numFmtId="203" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="45" fillId="0" fontId="45" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="43" fillId="0" fontId="43" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="44" fillId="0" fontId="44" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="45" fillId="21" fontId="45" numFmtId="202" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="46" fillId="22" fontId="46" numFmtId="203" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="46" fillId="0" fontId="46" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="47" fillId="0" fontId="47" numFmtId="204" xfId="0">
@@ -2019,17 +2019,17 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="55" fillId="0" fontId="55" numFmtId="212" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="56" fillId="0" fontId="56" numFmtId="213" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="56" fillId="25" fontId="56" numFmtId="213" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="57" fillId="0" fontId="57" numFmtId="214" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="58" fillId="25" fontId="58" numFmtId="215" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="58" fillId="0" fontId="58" numFmtId="215" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="59" fillId="26" fontId="59" numFmtId="216" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="60" fillId="27" fontId="60" numFmtId="217" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2388,218 +2388,218 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="18" r="1">
-      <c r="A1" s="7" t="str">
+      <c r="A1" s="10" t="str">
         <v>月度计划性工作&lt;2023年1月1日-2023年1月31日&gt;</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="6" t="str">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="1" t="str">
         <v>备注</v>
       </c>
     </row>
     <row customHeight="true" ht="29" r="2">
-      <c r="A2" s="6" t="str">
+      <c r="A2" s="1" t="str">
         <v>任务编号</v>
       </c>
-      <c r="B2" s="6" t="str">
+      <c r="B2" s="1" t="str">
         <v>任务属性</v>
       </c>
-      <c r="C2" s="9" t="str">
+      <c r="C2" s="2" t="str">
         <v>项目名称</v>
       </c>
-      <c r="D2" s="6" t="str">
+      <c r="D2" s="1" t="str">
         <v>当前进度</v>
       </c>
-      <c r="E2" s="9" t="str">
+      <c r="E2" s="2" t="str">
         <v>任务</v>
       </c>
-      <c r="F2" s="9" t="str">
+      <c r="F2" s="2" t="str">
         <v>负责人</v>
       </c>
-      <c r="G2" s="9" t="str">
+      <c r="G2" s="2" t="str">
         <v>干系人</v>
       </c>
-      <c r="H2" s="9" t="str">
+      <c r="H2" s="2" t="str">
         <v>目标
 完成</v>
       </c>
-      <c r="I2" s="9" t="str">
+      <c r="I2" s="2" t="str">
         <v>实际
 完成情况</v>
       </c>
-      <c r="J2" s="6" t="str">
+      <c r="J2" s="1" t="str">
         <v>第1周</v>
       </c>
-      <c r="K2" s="6" t="str">
+      <c r="K2" s="1" t="str">
         <v>第2周</v>
       </c>
-      <c r="L2" s="6" t="str">
+      <c r="L2" s="1" t="str">
         <v>第3周</v>
       </c>
-      <c r="M2" s="6" t="str">
+      <c r="M2" s="1" t="str">
         <v>第4周</v>
       </c>
-      <c r="N2" s="6" t="str">
+      <c r="N2" s="1" t="str">
         <v>第5周</v>
       </c>
-      <c r="O2" s="6" t="str">
+      <c r="O2" s="1" t="str">
         <v>第6周</v>
       </c>
-      <c r="P2" s="6"/>
+      <c r="P2" s="1"/>
     </row>
     <row customHeight="true" ht="28" r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="6" t="str">
         <v>运维</v>
       </c>
-      <c r="C3" s="10" t="str">
+      <c r="C3" s="3" t="str">
         <v>水泥全流程先进控制系统</v>
       </c>
-      <c r="D3" s="10" t="str">
+      <c r="D3" s="3" t="str">
         <v>商务招采-采购寻源</v>
       </c>
-      <c r="E3" s="10" t="str">
+      <c r="E3" s="3" t="str">
         <v>采购服务器及配套设备</v>
       </c>
-      <c r="F3" s="10" t="str">
+      <c r="F3" s="3" t="str">
         <v>邓承熹</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
         <v>0.8</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
     </row>
     <row customHeight="true" ht="42" r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="6" t="str">
         <v>运维</v>
       </c>
-      <c r="C4" s="10" t="str">
+      <c r="C4" s="3" t="str">
         <v>主机系统</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10" t="str">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="str">
         <v>目标1：日常运维、项目支持及月结支持
 目标2：项目资源评估、安装等支持
 交付件：问题清单、资源申请邮件</v>
       </c>
-      <c r="F4" s="10" t="str">
+      <c r="F4" s="3" t="str">
         <v>邓承熹</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
     </row>
     <row customHeight="true" ht="15" r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
     </row>
     <row customHeight="true" ht="15" r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="3"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="4"/>
     </row>
     <row customHeight="true" ht="15" r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="3"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="4"/>
     </row>
     <row customHeight="true" ht="15" r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="3"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="4"/>
     </row>
     <row customHeight="true" ht="15" r="9"/>
     <row customHeight="true" ht="15" r="10"/>
@@ -2619,11 +2619,11 @@
     <mergeCell ref="A1:O1"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation allowBlank="true" errorStyle="stop" showErrorMessage="true" sqref="B2" type="list">
+      <formula1>"建设,运维,通用"</formula1>
+    </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" showErrorMessage="true" sqref="B3:B8" type="list">
       <formula1>"建设,运维,通用,请假"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" showErrorMessage="true" sqref="B2" type="list">
-      <formula1>"建设,运维,通用"</formula1>
     </dataValidation>
   </dataValidations>
 </worksheet>
@@ -2660,539 +2660,541 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="18" r="1">
-      <c r="A1" s="20" t="str">
+      <c r="A1" s="11" t="str">
         <v>填报日期-周日</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12">
         <v>44962</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="2">
-      <c r="A2" s="31">
+      <c r="A2" s="29">
         <f>CONCATENATE("周总结&lt;",TEXT($D$1-6,"yyyy年mm月dd日"),"-",TEXT($D$1,"yyyy年mm月dd日"),"&gt;")</f>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="9" t="str">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="2" t="str">
         <v>项目用时统计
 （小时）</v>
       </c>
-      <c r="S2" s="6" t="str">
+      <c r="S2" s="1" t="str">
         <v>备注</v>
       </c>
     </row>
     <row customHeight="true" ht="29" r="3">
-      <c r="A3" s="6" t="str">
+      <c r="A3" s="1" t="str">
         <v>任务编号</v>
       </c>
-      <c r="B3" s="6" t="str">
+      <c r="B3" s="1" t="str">
         <v>code</v>
       </c>
-      <c r="C3" s="6" t="str">
+      <c r="C3" s="1" t="str">
         <v>任务分类</v>
       </c>
-      <c r="D3" s="9" t="str">
+      <c r="D3" s="2" t="str">
         <v>项目名称</v>
       </c>
-      <c r="E3" s="9" t="str">
+      <c r="E3" s="2" t="str">
         <v>当前进度</v>
       </c>
-      <c r="F3" s="9" t="str">
+      <c r="F3" s="2" t="str">
         <v>负责人</v>
       </c>
-      <c r="G3" s="9" t="str">
+      <c r="G3" s="2" t="str">
         <v>协助人</v>
       </c>
-      <c r="H3" s="6" t="str">
+      <c r="H3" s="1" t="str">
         <v>任务/交付件</v>
       </c>
-      <c r="I3" s="9" t="str">
+      <c r="I3" s="2" t="str">
         <v>目标
 完成</v>
       </c>
-      <c r="J3" s="9" t="str">
+      <c r="J3" s="2" t="str">
         <v>实际
 完成</v>
       </c>
-      <c r="K3" s="6" t="str">
+      <c r="K3" s="1" t="str">
         <v>星期一</v>
       </c>
-      <c r="L3" s="6" t="str">
+      <c r="L3" s="1" t="str">
         <v>星期二</v>
       </c>
-      <c r="M3" s="6" t="str">
+      <c r="M3" s="1" t="str">
         <v>星期三</v>
       </c>
-      <c r="N3" s="6" t="str">
+      <c r="N3" s="1" t="str">
         <v>星期四</v>
       </c>
-      <c r="O3" s="6" t="str">
+      <c r="O3" s="1" t="str">
         <v>星期五</v>
       </c>
-      <c r="P3" s="6" t="str">
+      <c r="P3" s="1" t="str">
         <v>星期六</v>
       </c>
-      <c r="Q3" s="6" t="str">
+      <c r="Q3" s="1" t="str">
         <v>星期日</v>
       </c>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
     </row>
     <row customHeight="true" ht="32" r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="10" t="str">
+      <c r="B4" s="6"/>
+      <c r="C4" s="3" t="str">
         <v>运维</v>
       </c>
-      <c r="D4" s="10" t="str">
+      <c r="D4" s="3" t="str">
         <v>主机系统</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="4" t="str">
+      <c r="E4" s="5"/>
+      <c r="F4" s="6" t="str">
         <v>邓承熹</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="10" t="str">
+      <c r="G4" s="6"/>
+      <c r="H4" s="3" t="str">
         <v>目标1：日常运维、项目支持及月结支持
 目标2：项目资源评估、安装等支持
 交付件：问题清单、资源申请邮件</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="11">
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="15">
         <v>3</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="15">
         <v>5</v>
       </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="14">
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="16">
         <f>SUM(K4:Q4)</f>
       </c>
-      <c r="S4" s="3"/>
+      <c r="S4" s="4"/>
     </row>
     <row customHeight="true" ht="32" r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="str">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="str">
         <v>通用</v>
       </c>
-      <c r="D5" s="10" t="str">
+      <c r="D5" s="3" t="str">
         <v>临时会议（非项目建设、运维）</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="4" t="str">
+      <c r="E5" s="3"/>
+      <c r="F5" s="6" t="str">
         <v>邓承熹</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15">
         <v>2</v>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="14">
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="16">
         <f>SUM(K5:Q5)</f>
       </c>
-      <c r="S5" s="3"/>
+      <c r="S5" s="4"/>
     </row>
     <row customHeight="true" ht="32" r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="str">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="str">
         <v>请假</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="4" t="str">
+      <c r="D6" s="3" t="str">
+        <v>请假</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="6" t="str">
         <v>邓承熹</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="11">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="15">
         <v>7</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="15">
         <v>7</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="15">
         <v>7</v>
       </c>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="14">
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="16">
         <f>SUM(K6:Q6)</f>
       </c>
-      <c r="S6" s="3"/>
+      <c r="S6" s="4"/>
     </row>
     <row customHeight="true" ht="32" r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="14">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="16">
         <f>SUM(K7:Q7)</f>
       </c>
-      <c r="S7" s="3"/>
+      <c r="S7" s="4"/>
     </row>
     <row customHeight="true" ht="26" r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="14">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="16">
         <f>SUM(J8:Q8)</f>
       </c>
-      <c r="S8" s="3"/>
+      <c r="S8" s="4"/>
     </row>
     <row customHeight="true" ht="25" r="9">
-      <c r="A9" s="15" t="str">
+      <c r="A9" s="31" t="str">
         <v>小计</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="14">
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="16">
         <f>SUM(K4:K8)</f>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="16">
         <f>SUM(L4:L8)</f>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="16">
         <f>SUM(M4:M8)</f>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="16">
         <f>SUM(N4:N8)</f>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="16">
         <f>SUM(O4:O8)</f>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="16">
         <f>SUM(P4:P8)</f>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="16">
         <f>SUM(Q4:Q8)</f>
       </c>
-      <c r="R9" s="14">
+      <c r="R9" s="16">
         <f>SUM(R4:R8)</f>
       </c>
-      <c r="S9" s="3"/>
+      <c r="S9" s="4"/>
     </row>
     <row customHeight="true" ht="17" r="10">
-      <c r="A10" s="10" t="str">
+      <c r="A10" s="3" t="str">
         <v>任务完成情况</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="35" t="str">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="32" t="str">
         <v>上午</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="25" t="str">
+      <c r="E10" s="35"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="17" t="str">
         <v>09:00 ~ 10:00</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="36" t="str">
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="34" t="str">
         <v>主机系统
 1、用户需求处理
 2、月会材料整理</v>
       </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
     </row>
     <row customHeight="true" ht="17" r="11">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="25" t="str">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="17" t="str">
         <v>10:00 ~ 11:00</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
     </row>
     <row customHeight="true" ht="17" r="12">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="25" t="str">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="17" t="str">
         <v>11:00 ~ 12:00</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
     </row>
     <row customHeight="true" ht="17" r="13">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="25" t="str">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="17" t="str">
         <v>下午</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25" t="str">
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17" t="str">
         <v>13:30 ~ 14:30</v>
       </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
     </row>
     <row customHeight="true" ht="15" r="14">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25" t="str">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17" t="str">
         <v>14:30 ~ 15:30</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
     </row>
     <row customHeight="true" ht="15" r="15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25" t="str">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17" t="str">
         <v>15:30 ~ 16:30</v>
       </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="33" t="str">
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="37" t="str">
         <v>科技公司月会</v>
       </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
     </row>
     <row customHeight="true" ht="15" r="16">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25" t="str">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17" t="str">
         <v>16:30 ~ 17:30</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
     </row>
     <row customHeight="true" ht="16" r="17">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="16" t="str">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="23" t="str">
         <v>加班</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17" t="str">
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24" t="str">
         <v>17:30 ~ 18:30</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="34" t="str">
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="21" t="str">
         <v>主机系统
 1、DPM数字化业绩管理系统资源评估
 2、需求处理
 3、月会材料整理</v>
       </c>
-      <c r="N17" s="34" t="str">
+      <c r="N17" s="21" t="str">
         <v>主机系统
 1、DPM数字化业绩管理系统资源评估
 2、审计资源整理</v>
       </c>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="16"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="23"/>
     </row>
     <row customHeight="true" ht="16" r="18">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17" t="str">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24" t="str">
         <v>18:30 ~ 19:30</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
     </row>
     <row customHeight="true" ht="16" r="19">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17" t="str">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24" t="str">
         <v>19:30 ~ 20:30</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
       <c r="K19" s="39"/>
       <c r="L19" s="39"/>
       <c r="M19" s="40"/>
@@ -3200,8 +3202,8 @@
       <c r="O19" s="39"/>
       <c r="P19" s="39"/>
       <c r="Q19" s="39"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
     </row>
     <row customHeight="true" ht="16" r="20"/>
   </sheetData>
@@ -3230,17 +3232,17 @@
     <mergeCell ref="M17:M19"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation allowBlank="true" errorStyle="stop" showErrorMessage="true" sqref="J8" type="list">
+      <formula1>"完成,延迟"</formula1>
+    </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" showErrorMessage="true" sqref="C9:C20" type="list">
       <formula1>"建设,运维,通用"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" showErrorMessage="true" sqref="J8" type="list">
-      <formula1>"完成,延迟"</formula1>
     </dataValidation>
   </dataValidations>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="true" errorStyle="stop" showErrorMessage="true" xr:uid="{C4872343-D2C6-487F-BE39-84F56D4E73BC}">
+        <x14:dataValidation type="list" allowBlank="true" errorStyle="stop" showErrorMessage="true" xr:uid="{F501B5F8-B42D-47C1-B79A-10D06B8794B9}">
           <x14:formula1>
             <xm:f>'附表-2'!$A$1:$E$1</xm:f>
           </x14:formula1>
@@ -3283,547 +3285,549 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="18" r="1">
-      <c r="A1" s="20" t="str">
+      <c r="A1" s="11" t="str">
         <v>填报日期-周日</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12">
         <f>'第1周工作计划'!$D$1+7</f>
       </c>
     </row>
     <row customHeight="true" ht="19" r="2">
-      <c r="A2" s="31">
+      <c r="A2" s="29">
         <f>CONCATENATE("周总结&lt;",TEXT($D$1-6,"yyyy年mm月dd日"),"-",TEXT($D$1,"yyyy年mm月dd日"),"&gt;")</f>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="9" t="str">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="2" t="str">
         <v>项目用时统计
 （小时）</v>
       </c>
-      <c r="S2" s="6" t="str">
+      <c r="S2" s="1" t="str">
         <v>备注</v>
       </c>
     </row>
     <row customHeight="true" ht="29" r="3">
-      <c r="A3" s="6" t="str">
+      <c r="A3" s="1" t="str">
         <v>任务编号</v>
       </c>
-      <c r="B3" s="6" t="str">
+      <c r="B3" s="1" t="str">
         <v>code</v>
       </c>
-      <c r="C3" s="6" t="str">
+      <c r="C3" s="1" t="str">
         <v>任务分类</v>
       </c>
-      <c r="D3" s="9" t="str">
+      <c r="D3" s="2" t="str">
         <v>项目名称</v>
       </c>
-      <c r="E3" s="9" t="str">
+      <c r="E3" s="2" t="str">
         <v>当前进度</v>
       </c>
-      <c r="F3" s="9" t="str">
+      <c r="F3" s="2" t="str">
         <v>负责人</v>
       </c>
-      <c r="G3" s="9" t="str">
+      <c r="G3" s="2" t="str">
         <v>协助人</v>
       </c>
-      <c r="H3" s="6" t="str">
+      <c r="H3" s="1" t="str">
         <v>任务/交付件</v>
       </c>
-      <c r="I3" s="9" t="str">
+      <c r="I3" s="2" t="str">
         <v>目标
 完成</v>
       </c>
-      <c r="J3" s="9" t="str">
+      <c r="J3" s="2" t="str">
         <v>实际
 完成</v>
       </c>
-      <c r="K3" s="6" t="str">
+      <c r="K3" s="1" t="str">
         <v>星期一</v>
       </c>
-      <c r="L3" s="6" t="str">
+      <c r="L3" s="1" t="str">
         <v>星期二</v>
       </c>
-      <c r="M3" s="6" t="str">
+      <c r="M3" s="1" t="str">
         <v>星期三</v>
       </c>
-      <c r="N3" s="6" t="str">
+      <c r="N3" s="1" t="str">
         <v>星期四</v>
       </c>
-      <c r="O3" s="6" t="str">
+      <c r="O3" s="1" t="str">
         <v>星期五</v>
       </c>
-      <c r="P3" s="6" t="str">
+      <c r="P3" s="1" t="str">
         <v>星期六</v>
       </c>
-      <c r="Q3" s="6" t="str">
+      <c r="Q3" s="1" t="str">
         <v>星期日</v>
       </c>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
     </row>
     <row customHeight="true" ht="32" r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="10" t="str">
+      <c r="B4" s="6"/>
+      <c r="C4" s="3" t="str">
         <v>运维</v>
       </c>
-      <c r="D4" s="10" t="str">
+      <c r="D4" s="3" t="str">
         <v>主机系统</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="4" t="str">
+      <c r="E4" s="5"/>
+      <c r="F4" s="6" t="str">
         <v>邓承熹</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="10" t="str">
+      <c r="G4" s="6"/>
+      <c r="H4" s="3" t="str">
         <v>目标1：日常运维、项目支持及月结支持
 目标2：项目资源评估、安装等支持
 交付件：问题清单、资源申请邮件</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="11">
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="15">
         <v>4</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="15">
         <v>2</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="15">
         <v>1</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="15">
         <v>1</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="15">
         <v>1</v>
       </c>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="14">
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="16">
         <f>SUM(K4:Q4)</f>
       </c>
-      <c r="S4" s="3"/>
+      <c r="S4" s="4"/>
     </row>
     <row customHeight="true" ht="32" r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="str">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="str">
         <v>请假</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="4" t="str">
+      <c r="D5" s="3" t="str">
+        <v>请假</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="6" t="str">
         <v>邓承熹</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="11">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="15">
         <v>7</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="15">
         <v>7</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="15">
         <v>7</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="15">
         <v>7</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="15">
         <v>7</v>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="14">
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="16">
         <f>SUM(K5:Q5)</f>
       </c>
-      <c r="S5" s="3"/>
+      <c r="S5" s="4"/>
     </row>
     <row customHeight="true" ht="32" r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="14">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="16">
         <f>SUM(K6:Q6)</f>
       </c>
-      <c r="S6" s="3"/>
+      <c r="S6" s="4"/>
     </row>
     <row customHeight="true" ht="32" r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="14">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="16">
         <f>SUM(K7:Q7)</f>
       </c>
-      <c r="S7" s="3"/>
+      <c r="S7" s="4"/>
     </row>
     <row customHeight="true" ht="26" r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="14">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="16">
         <f>SUM(J8:Q8)</f>
       </c>
-      <c r="S8" s="3"/>
+      <c r="S8" s="4"/>
     </row>
     <row customHeight="true" ht="25" r="9">
-      <c r="A9" s="15" t="str">
+      <c r="A9" s="31" t="str">
         <v>小计</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="14">
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="16">
         <f>SUM(K4:K8)</f>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="16">
         <f>SUM(L4:L8)</f>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="16">
         <f>SUM(M4:M8)</f>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="16">
         <f>SUM(N4:N8)</f>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="16">
         <f>SUM(O4:O8)</f>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="16">
         <f>SUM(P4:P8)</f>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="16">
         <f>SUM(Q4:Q8)</f>
       </c>
-      <c r="R9" s="14">
+      <c r="R9" s="16">
         <f>SUM(R4:R8)</f>
       </c>
-      <c r="S9" s="3"/>
+      <c r="S9" s="4"/>
     </row>
     <row customHeight="true" ht="17" r="10">
-      <c r="A10" s="10" t="str">
+      <c r="A10" s="3" t="str">
         <v>任务完成情况</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="35" t="str">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="32" t="str">
         <v>上午</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="25" t="str">
+      <c r="E10" s="35"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="17" t="str">
         <v>09:00 ~ 10:00</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
     </row>
     <row customHeight="true" ht="17" r="11">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="25" t="str">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="17" t="str">
         <v>10:00 ~ 11:00</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
     </row>
     <row customHeight="true" ht="17" r="12">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="25" t="str">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="17" t="str">
         <v>11:00 ~ 12:00</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
     </row>
     <row customHeight="true" ht="17" r="13">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="25" t="str">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="17" t="str">
         <v>下午</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25" t="str">
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17" t="str">
         <v>13:30 ~ 14:30</v>
       </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
     </row>
     <row customHeight="true" ht="15" r="14">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25" t="str">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17" t="str">
         <v>14:30 ~ 15:30</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
     </row>
     <row customHeight="true" ht="15" r="15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25" t="str">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17" t="str">
         <v>15:30 ~ 16:30</v>
       </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
     </row>
     <row customHeight="true" ht="15" r="16">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25" t="str">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17" t="str">
         <v>16:30 ~ 17:30</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
     </row>
     <row customHeight="true" ht="16" r="17">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="16" t="str">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="23" t="str">
         <v>加班</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17" t="str">
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24" t="str">
         <v>17:30 ~ 18:30</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="34" t="str">
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="21" t="str">
         <v>主机系统
 1、DPM数字化业绩管理系统服务器安装配置
 2、用户需求</v>
       </c>
-      <c r="L17" s="34" t="str">
+      <c r="L17" s="21" t="str">
         <v>主机系统
 1、DPM数字化业绩管理系统服务器
 2、用户需求</v>
       </c>
-      <c r="M17" s="34" t="str">
+      <c r="M17" s="21" t="str">
         <v>主机系统
 1、DPM数字化业绩管理系统服务器安装配置
 2、用户需求</v>
       </c>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="16"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="23"/>
     </row>
     <row customHeight="true" ht="16" r="18">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17" t="str">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24" t="str">
         <v>18:30 ~ 19:30</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
     </row>
     <row customHeight="true" ht="16" r="19">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17" t="str">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24" t="str">
         <v>19:30 ~ 20:30</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
       <c r="N19" s="39"/>
       <c r="O19" s="39"/>
       <c r="P19" s="39"/>
       <c r="Q19" s="39"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
     </row>
     <row customHeight="true" ht="16" r="20"/>
   </sheetData>
@@ -3861,7 +3865,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="true" errorStyle="stop" showErrorMessage="true" xr:uid="{6535812A-6952-4C6F-999D-996D70D3DD12}">
+        <x14:dataValidation type="list" allowBlank="true" errorStyle="stop" showErrorMessage="true" xr:uid="{4C0ADB2A-04C8-4F06-A7C1-1AF2F52E1324}">
           <x14:formula1>
             <xm:f>'附表-2'!$A$1:$E$1</xm:f>
           </x14:formula1>
@@ -3904,540 +3908,540 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="18" r="1">
-      <c r="A1" s="20" t="str">
+      <c r="A1" s="11" t="str">
         <v>填报日期-周日</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12">
         <f>'第2周工作计划'!$D$1+7</f>
       </c>
     </row>
     <row customHeight="true" ht="19" r="2">
-      <c r="A2" s="7">
+      <c r="A2" s="10">
         <f>CONCATENATE("周总结&lt;",TEXT($D$1-6,"yyyy年mm月dd日"),"-",TEXT($D$1,"yyyy年mm月dd日"),"&gt;")</f>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="45" t="str">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="41" t="str">
         <v>项目用时统计
 （小时）</v>
       </c>
-      <c r="S2" s="6" t="str">
+      <c r="S2" s="1" t="str">
         <v>备注</v>
       </c>
     </row>
     <row customHeight="true" ht="29" r="3">
-      <c r="A3" s="6" t="str">
+      <c r="A3" s="1" t="str">
         <v>任务编号</v>
       </c>
-      <c r="B3" s="6" t="str">
+      <c r="B3" s="1" t="str">
         <v>code</v>
       </c>
-      <c r="C3" s="6" t="str">
+      <c r="C3" s="1" t="str">
         <v>任务分类</v>
       </c>
-      <c r="D3" s="9" t="str">
+      <c r="D3" s="2" t="str">
         <v>项目名称</v>
       </c>
-      <c r="E3" s="9" t="str">
+      <c r="E3" s="2" t="str">
         <v>当前进度</v>
       </c>
-      <c r="F3" s="9" t="str">
+      <c r="F3" s="2" t="str">
         <v>负责人</v>
       </c>
-      <c r="G3" s="9" t="str">
+      <c r="G3" s="2" t="str">
         <v>协助人</v>
       </c>
-      <c r="H3" s="6" t="str">
+      <c r="H3" s="1" t="str">
         <v>任务/交付件</v>
       </c>
-      <c r="I3" s="9" t="str">
+      <c r="I3" s="2" t="str">
         <v>目标
 完成</v>
       </c>
-      <c r="J3" s="9" t="str">
+      <c r="J3" s="2" t="str">
         <v>实际
 完成</v>
       </c>
-      <c r="K3" s="6" t="str">
+      <c r="K3" s="1" t="str">
         <v>星期一</v>
       </c>
-      <c r="L3" s="6" t="str">
+      <c r="L3" s="1" t="str">
         <v>星期二</v>
       </c>
-      <c r="M3" s="6" t="str">
+      <c r="M3" s="1" t="str">
         <v>星期三</v>
       </c>
-      <c r="N3" s="6" t="str">
+      <c r="N3" s="1" t="str">
         <v>星期四</v>
       </c>
-      <c r="O3" s="6" t="str">
+      <c r="O3" s="1" t="str">
         <v>星期五</v>
       </c>
-      <c r="P3" s="6" t="str">
+      <c r="P3" s="1" t="str">
         <v>星期六</v>
       </c>
-      <c r="Q3" s="6" t="str">
+      <c r="Q3" s="1" t="str">
         <v>星期日</v>
       </c>
-      <c r="R3" s="46"/>
-      <c r="S3" s="6"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="1"/>
     </row>
     <row customHeight="true" ht="32" r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="10" t="str">
+      <c r="B4" s="6"/>
+      <c r="C4" s="3" t="str">
         <v>建设</v>
       </c>
-      <c r="D4" s="10" t="str">
+      <c r="D4" s="3" t="str">
         <v>IT硬件运维自动化平台</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="4" t="str">
+      <c r="E4" s="5"/>
+      <c r="F4" s="6" t="str">
         <v>邓承熹</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="10" t="str">
+      <c r="G4" s="6"/>
+      <c r="H4" s="3" t="str">
         <v>方案交流</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11">
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15">
         <v>1</v>
       </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11">
+      <c r="M4" s="15"/>
+      <c r="N4" s="15">
         <v>2.5</v>
       </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="14">
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="16">
         <f>SUM(K4:Q4)</f>
       </c>
-      <c r="S4" s="3"/>
+      <c r="S4" s="4"/>
     </row>
     <row customHeight="true" ht="32" r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="10" t="str">
+      <c r="B5" s="6"/>
+      <c r="C5" s="3" t="str">
         <v>运维</v>
       </c>
-      <c r="D5" s="10" t="str">
+      <c r="D5" s="3" t="str">
         <v>主机系统</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="4" t="str">
+      <c r="E5" s="5"/>
+      <c r="F5" s="6" t="str">
         <v>邓承熹</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="10" t="str">
+      <c r="G5" s="6"/>
+      <c r="H5" s="3" t="str">
         <v>目标1：日常运维、项目支持及月结支持
 目标2：项目资源评估、安装等支持
 交付件：问题清单、资源申请邮件</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="11">
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="15">
         <v>6</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="15">
         <v>5</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="15">
         <v>5.5</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="15">
         <v>5</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="15">
         <v>6.5</v>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="14">
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="16">
         <f>SUM(K5:Q5)</f>
       </c>
-      <c r="S5" s="3"/>
+      <c r="S5" s="4"/>
     </row>
     <row customHeight="true" ht="32" r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="42" t="str">
+      <c r="B6" s="6"/>
+      <c r="C6" s="45" t="str">
         <v>运维</v>
       </c>
-      <c r="D6" s="43" t="str">
+      <c r="D6" s="46" t="str">
         <v>信息安全相关运维</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3" t="str">
+      <c r="E6" s="3"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="4" t="str">
         <v>邓承熹</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="11">
+      <c r="H6" s="4"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="15">
         <v>1.5</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="15">
         <v>1.5</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="15">
         <v>2</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="15">
         <v>0</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="15">
         <v>1</v>
       </c>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="14">
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="16">
         <f>SUM(K6:Q6)</f>
       </c>
-      <c r="S6" s="3"/>
+      <c r="S6" s="4"/>
     </row>
     <row customHeight="true" ht="32" r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="14">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="16">
         <f>SUM(K7:Q7)</f>
       </c>
-      <c r="S7" s="3"/>
+      <c r="S7" s="4"/>
     </row>
     <row customHeight="true" ht="26" r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="14">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="16">
         <f>SUM(J8:Q8)</f>
       </c>
-      <c r="S8" s="3"/>
+      <c r="S8" s="4"/>
     </row>
     <row customHeight="true" ht="25" r="9">
-      <c r="A9" s="15" t="str">
+      <c r="A9" s="31" t="str">
         <v>小计</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="14">
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="16">
         <f>SUM(K4:K8)</f>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="16">
         <f>SUM(L4:L8)</f>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="16">
         <f>SUM(M4:M8)</f>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="16">
         <f>SUM(N4:N8)</f>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="16">
         <f>SUM(O4:O8)</f>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="16">
         <f>SUM(P4:P8)</f>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="16">
         <f>SUM(Q4:Q8)</f>
       </c>
-      <c r="R9" s="14">
+      <c r="R9" s="16">
         <f>SUM(R4:R8)</f>
       </c>
-      <c r="S9" s="3"/>
+      <c r="S9" s="4"/>
     </row>
     <row customHeight="true" ht="17" r="10">
-      <c r="A10" s="10" t="str">
+      <c r="A10" s="3" t="str">
         <v>任务完成情况</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="35" t="str">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="32" t="str">
         <v>上午</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="25" t="str">
+      <c r="E10" s="35"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="17" t="str">
         <v>09:00 ~ 10:00</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
     </row>
     <row customHeight="true" ht="17" r="11">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="25" t="str">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="17" t="str">
         <v>10:00 ~ 11:00</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
     </row>
     <row customHeight="true" ht="17" r="12">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="25" t="str">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="17" t="str">
         <v>11:00 ~ 12:00</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
     </row>
     <row customHeight="true" ht="17" r="13">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="25" t="str">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="17" t="str">
         <v>下午</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25" t="str">
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17" t="str">
         <v>13:30 ~ 14:30</v>
       </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
     </row>
     <row customHeight="true" ht="15" r="14">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25" t="str">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17" t="str">
         <v>14:30 ~ 15:30</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
     </row>
     <row customHeight="true" ht="15" r="15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25" t="str">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17" t="str">
         <v>15:30 ~ 16:30</v>
       </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
     </row>
     <row customHeight="true" ht="15" r="16">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25" t="str">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17" t="str">
         <v>16:30 ~ 17:30</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
     </row>
     <row customHeight="true" ht="16" r="17">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="16" t="str">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="23" t="str">
         <v>加班</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17" t="str">
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24" t="str">
         <v>17:30 ~ 18:30</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="16"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="23"/>
     </row>
     <row customHeight="true" ht="16" r="18">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17" t="str">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24" t="str">
         <v>18:30 ~ 19:30</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
     </row>
     <row customHeight="true" ht="16" r="19">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17" t="str">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24" t="str">
         <v>19:30 ~ 20:30</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
       <c r="K19" s="39"/>
       <c r="L19" s="39"/>
       <c r="M19" s="39"/>
@@ -4445,8 +4449,8 @@
       <c r="O19" s="39"/>
       <c r="P19" s="39"/>
       <c r="Q19" s="39"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
     </row>
     <row customHeight="true" ht="16" r="20"/>
   </sheetData>
@@ -4471,17 +4475,17 @@
     <mergeCell ref="G17:J17"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation allowBlank="true" errorStyle="stop" showErrorMessage="true" sqref="C9:C20" type="list">
+      <formula1>"建设,运维,通用"</formula1>
+    </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" showErrorMessage="true" sqref="J8" type="list">
       <formula1>"完成,延迟"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" showErrorMessage="true" sqref="C9:C20" type="list">
-      <formula1>"建设,运维,通用"</formula1>
     </dataValidation>
   </dataValidations>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="true" errorStyle="stop" showErrorMessage="true" xr:uid="{EC251C42-8065-4D25-9277-6D0E35B67CF4}">
+        <x14:dataValidation type="list" allowBlank="true" errorStyle="stop" showErrorMessage="true" xr:uid="{4F7009CB-4C50-4FC6-A808-E7BA6F40235B}">
           <x14:formula1>
             <xm:f>'附表-2'!$A$1:$E$1</xm:f>
           </x14:formula1>
@@ -4524,12 +4528,12 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="18" r="1">
-      <c r="A1" s="20" t="str">
+      <c r="A1" s="11" t="str">
         <v>填报日期-周日</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12">
         <f>'第3周工作计划'!$D$1+7</f>
       </c>
       <c r="E1" s="47"/>
@@ -4549,526 +4553,526 @@
       <c r="S1" s="47"/>
     </row>
     <row customHeight="true" ht="19" r="2">
-      <c r="A2" s="7">
+      <c r="A2" s="10">
         <f>CONCATENATE("周总结&lt;",TEXT($D$1-6,"yyyy年mm月dd日"),"-",TEXT($D$1,"yyyy年mm月dd日"),"&gt;")</f>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="45" t="str">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="41" t="str">
         <v>项目用时统计
 （小时）</v>
       </c>
-      <c r="S2" s="6" t="str">
+      <c r="S2" s="1" t="str">
         <v>备注</v>
       </c>
     </row>
     <row customHeight="true" ht="29" r="3">
-      <c r="A3" s="6" t="str">
+      <c r="A3" s="1" t="str">
         <v>任务编号</v>
       </c>
-      <c r="B3" s="6" t="str">
+      <c r="B3" s="1" t="str">
         <v>code</v>
       </c>
-      <c r="C3" s="6" t="str">
+      <c r="C3" s="1" t="str">
         <v>任务分类</v>
       </c>
-      <c r="D3" s="9" t="str">
+      <c r="D3" s="2" t="str">
         <v>项目名称</v>
       </c>
-      <c r="E3" s="9" t="str">
+      <c r="E3" s="2" t="str">
         <v>当前进度</v>
       </c>
-      <c r="F3" s="9" t="str">
+      <c r="F3" s="2" t="str">
         <v>负责人</v>
       </c>
-      <c r="G3" s="9" t="str">
+      <c r="G3" s="2" t="str">
         <v>协助人</v>
       </c>
-      <c r="H3" s="6" t="str">
+      <c r="H3" s="1" t="str">
         <v>任务/交付件</v>
       </c>
-      <c r="I3" s="9" t="str">
+      <c r="I3" s="2" t="str">
         <v>目标
 完成</v>
       </c>
-      <c r="J3" s="9" t="str">
+      <c r="J3" s="2" t="str">
         <v>实际
 完成</v>
       </c>
-      <c r="K3" s="6" t="str">
+      <c r="K3" s="1" t="str">
         <v>星期一</v>
       </c>
-      <c r="L3" s="6" t="str">
+      <c r="L3" s="1" t="str">
         <v>星期二</v>
       </c>
-      <c r="M3" s="6" t="str">
+      <c r="M3" s="1" t="str">
         <v>星期三</v>
       </c>
-      <c r="N3" s="6" t="str">
+      <c r="N3" s="1" t="str">
         <v>星期四</v>
       </c>
-      <c r="O3" s="6" t="str">
+      <c r="O3" s="1" t="str">
         <v>星期五</v>
       </c>
-      <c r="P3" s="6" t="str">
+      <c r="P3" s="1" t="str">
         <v>星期六</v>
       </c>
-      <c r="Q3" s="6" t="str">
+      <c r="Q3" s="1" t="str">
         <v>星期日</v>
       </c>
-      <c r="R3" s="46"/>
-      <c r="S3" s="6"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="1"/>
     </row>
     <row customHeight="true" ht="32" r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="10" t="str">
+      <c r="B4" s="6"/>
+      <c r="C4" s="3" t="str">
         <v>建设</v>
       </c>
-      <c r="D4" s="10" t="str">
+      <c r="D4" s="3" t="str">
         <v>IT硬件运维自动化平台</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="4" t="str">
+      <c r="E4" s="5"/>
+      <c r="F4" s="6" t="str">
         <v>邓承熹</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="10" t="str">
+      <c r="G4" s="6"/>
+      <c r="H4" s="3" t="str">
         <v>方案交流</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="14">
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="16">
         <f>SUM(K4:Q4)</f>
       </c>
-      <c r="S4" s="3"/>
+      <c r="S4" s="4"/>
     </row>
     <row customHeight="true" ht="32" r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="10" t="str">
+      <c r="B5" s="6"/>
+      <c r="C5" s="3" t="str">
         <v>运维</v>
       </c>
-      <c r="D5" s="10" t="str">
+      <c r="D5" s="3" t="str">
         <v>主机系统</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="4" t="str">
+      <c r="E5" s="3"/>
+      <c r="F5" s="6" t="str">
         <v>邓承熹</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="10" t="str">
+      <c r="G5" s="6"/>
+      <c r="H5" s="3" t="str">
         <v>目标1：日常运维、项目支持及月结支持
 目标2：项目资源评估、安装等支持
 交付件：问题清单、资源申请邮件</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="11">
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="15">
         <v>6.5</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="15">
         <v>6.5</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="15">
         <v>7</v>
       </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="14">
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="16">
         <f>SUM(K5:Q5)</f>
       </c>
-      <c r="S5" s="3"/>
+      <c r="S5" s="4"/>
     </row>
     <row customHeight="true" ht="32" r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="42" t="str">
+      <c r="B6" s="6"/>
+      <c r="C6" s="45" t="str">
         <v>运维</v>
       </c>
-      <c r="D6" s="43" t="str">
+      <c r="D6" s="46" t="str">
         <v>信息安全相关运维</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3" t="str">
+      <c r="E6" s="3"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="4" t="str">
         <v>邓承熹</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="11">
+      <c r="H6" s="4"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="15">
         <v>1</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="15">
         <v>1</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="15">
         <v>1</v>
       </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="14">
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="16">
         <f>SUM(K6:Q6)</f>
       </c>
-      <c r="S6" s="3"/>
+      <c r="S6" s="4"/>
     </row>
     <row customHeight="true" ht="32" r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="str">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="str">
         <v>请假</v>
       </c>
-      <c r="D7" s="10" t="str">
+      <c r="D7" s="3" t="str">
         <v>请假</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11">
+      <c r="E7" s="4"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15">
         <v>7</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="15">
         <v>7</v>
       </c>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="14">
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="16">
         <f>SUM(K7:Q7)</f>
       </c>
-      <c r="S7" s="3"/>
+      <c r="S7" s="4"/>
     </row>
     <row customHeight="true" ht="26" r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="14">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="16">
         <f>SUM(J8:Q8)</f>
       </c>
-      <c r="S8" s="3"/>
+      <c r="S8" s="4"/>
     </row>
     <row customHeight="true" ht="25" r="9">
-      <c r="A9" s="15" t="str">
+      <c r="A9" s="31" t="str">
         <v>小计</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="14">
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="16">
         <f>SUM(K4:K8)</f>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="16">
         <f>SUM(L4:L8)</f>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="16">
         <f>SUM(M4:M8)</f>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="16">
         <f>SUM(N4:N8)</f>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="16">
         <f>SUM(O4:O8)</f>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="16">
         <f>SUM(P4:P8)</f>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="16">
         <f>SUM(Q4:Q8)</f>
       </c>
-      <c r="R9" s="14">
+      <c r="R9" s="16">
         <f>SUM(R4:R8)</f>
       </c>
-      <c r="S9" s="3"/>
+      <c r="S9" s="4"/>
     </row>
     <row customHeight="true" ht="17" r="10">
-      <c r="A10" s="10" t="str">
+      <c r="A10" s="3" t="str">
         <v>任务完成情况</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="35" t="str">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="32" t="str">
         <v>上午</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="25" t="str">
+      <c r="E10" s="35"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="17" t="str">
         <v>09:00 ~ 10:00</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
     </row>
     <row customHeight="true" ht="17" r="11">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="25" t="str">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="17" t="str">
         <v>10:00 ~ 11:00</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
     </row>
     <row customHeight="true" ht="17" r="12">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="25" t="str">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="17" t="str">
         <v>11:00 ~ 12:00</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
     </row>
     <row customHeight="true" ht="17" r="13">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="25" t="str">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="17" t="str">
         <v>下午</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25" t="str">
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17" t="str">
         <v>13:30 ~ 14:30</v>
       </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
     </row>
     <row customHeight="true" ht="15" r="14">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25" t="str">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17" t="str">
         <v>14:30 ~ 15:30</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
     </row>
     <row customHeight="true" ht="15" r="15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25" t="str">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17" t="str">
         <v>15:30 ~ 16:30</v>
       </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
     </row>
     <row customHeight="true" ht="15" r="16">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25" t="str">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17" t="str">
         <v>16:30 ~ 17:30</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
     </row>
     <row customHeight="true" ht="16" r="17">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="16" t="str">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="23" t="str">
         <v>加班</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17" t="str">
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24" t="str">
         <v>17:30 ~ 18:30</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="16"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="23"/>
     </row>
     <row customHeight="true" ht="16" r="18">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17" t="str">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24" t="str">
         <v>18:30 ~ 19:30</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
     </row>
     <row customHeight="true" ht="16" r="19">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17" t="str">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24" t="str">
         <v>19:30 ~ 20:30</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
       <c r="K19" s="39"/>
       <c r="L19" s="39"/>
       <c r="M19" s="39"/>
@@ -5076,8 +5080,8 @@
       <c r="O19" s="39"/>
       <c r="P19" s="39"/>
       <c r="Q19" s="39"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
     </row>
     <row customHeight="true" ht="16" r="20"/>
   </sheetData>
@@ -5112,11 +5116,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="true" errorStyle="stop" showErrorMessage="true" xr:uid="{FBA8D851-D445-4BDF-B9CF-1343A1A07D54}">
+        <x14:dataValidation type="list" allowBlank="true" errorStyle="stop" showErrorMessage="true" xr:uid="{649E7B4A-29A3-4AE6-A7E8-427BD8CC9B50}">
           <x14:formula1>
             <xm:f>'附表-2'!$A$1:$E$1</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C8 D7</xm:sqref>
+          <xm:sqref>D7 C4:C8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5155,12 +5159,12 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="18" r="1">
-      <c r="A1" s="20" t="str">
+      <c r="A1" s="11" t="str">
         <v>填报日期-周日</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12">
         <f>'第4周工作计划'!$D$1+7</f>
       </c>
       <c r="E1" s="47"/>
@@ -5180,117 +5184,117 @@
       <c r="S1" s="47"/>
     </row>
     <row customHeight="true" ht="16" r="2">
-      <c r="A2" s="7">
+      <c r="A2" s="10">
         <f>CONCATENATE("周总结&lt;",TEXT($D$1-6,"yyyy年mm月dd日"),"-",TEXT($D$1,"yyyy年mm月dd日"),"&gt;")</f>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="45" t="str">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="41" t="str">
         <v>项目用时统计
 （小时）</v>
       </c>
-      <c r="S2" s="6" t="str">
+      <c r="S2" s="1" t="str">
         <v>备注</v>
       </c>
     </row>
     <row customHeight="true" ht="29" r="3">
-      <c r="A3" s="6" t="str">
+      <c r="A3" s="1" t="str">
         <v>任务编号</v>
       </c>
-      <c r="B3" s="6" t="str">
+      <c r="B3" s="1" t="str">
         <v>code</v>
       </c>
-      <c r="C3" s="6" t="str">
+      <c r="C3" s="1" t="str">
         <v>任务分类</v>
       </c>
-      <c r="D3" s="9" t="str">
+      <c r="D3" s="2" t="str">
         <v>项目名称</v>
       </c>
-      <c r="E3" s="9" t="str">
+      <c r="E3" s="2" t="str">
         <v>当前进度</v>
       </c>
-      <c r="F3" s="9" t="str">
+      <c r="F3" s="2" t="str">
         <v>负责人</v>
       </c>
-      <c r="G3" s="9" t="str">
+      <c r="G3" s="2" t="str">
         <v>协助人</v>
       </c>
-      <c r="H3" s="6" t="str">
+      <c r="H3" s="1" t="str">
         <v>任务/交付件</v>
       </c>
-      <c r="I3" s="9" t="str">
+      <c r="I3" s="2" t="str">
         <v>目标
 完成</v>
       </c>
-      <c r="J3" s="9" t="str">
+      <c r="J3" s="2" t="str">
         <v>实际
 完成</v>
       </c>
-      <c r="K3" s="6" t="str">
+      <c r="K3" s="1" t="str">
         <v>星期一</v>
       </c>
-      <c r="L3" s="6" t="str">
+      <c r="L3" s="1" t="str">
         <v>星期二</v>
       </c>
-      <c r="M3" s="6" t="str">
+      <c r="M3" s="1" t="str">
         <v>星期三</v>
       </c>
-      <c r="N3" s="6" t="str">
+      <c r="N3" s="1" t="str">
         <v>星期四</v>
       </c>
-      <c r="O3" s="6" t="str">
+      <c r="O3" s="1" t="str">
         <v>星期五</v>
       </c>
-      <c r="P3" s="6" t="str">
+      <c r="P3" s="1" t="str">
         <v>星期六</v>
       </c>
-      <c r="Q3" s="6" t="str">
+      <c r="Q3" s="1" t="str">
         <v>星期日</v>
       </c>
-      <c r="R3" s="46"/>
-      <c r="S3" s="6"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="1"/>
     </row>
     <row customHeight="true" ht="15" r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="10" t="str">
+      <c r="B4" s="6"/>
+      <c r="C4" s="3" t="str">
         <v>运维</v>
       </c>
-      <c r="D4" s="10" t="str">
+      <c r="D4" s="3" t="str">
         <v>主机系统</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="4" t="str">
+      <c r="E4" s="3"/>
+      <c r="F4" s="6" t="str">
         <v>邓承熹</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="10" t="str">
+      <c r="G4" s="6"/>
+      <c r="H4" s="3" t="str">
         <v>目标1：日常运维、项目支持及月结支持
 目标2：项目资源评估、安装等支持
 交付件：问题清单、资源申请邮件</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="11">
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="15">
         <v>7</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="15">
         <v>7</v>
       </c>
       <c r="M4" s="48"/>
@@ -5298,34 +5302,34 @@
       <c r="O4" s="48"/>
       <c r="P4" s="48"/>
       <c r="Q4" s="48"/>
-      <c r="R4" s="14">
+      <c r="R4" s="16">
         <f>SUM(K4:Q4)</f>
       </c>
-      <c r="S4" s="3"/>
+      <c r="S4" s="4"/>
     </row>
     <row customHeight="true" ht="15" r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="42" t="str">
+      <c r="B5" s="6"/>
+      <c r="C5" s="45" t="str">
         <v>运维</v>
       </c>
-      <c r="D5" s="43" t="str">
+      <c r="D5" s="46" t="str">
         <v>信息安全相关运维</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="3" t="str">
+      <c r="E5" s="3"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="4" t="str">
         <v>邓承熹</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="11">
+      <c r="H5" s="4"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="15">
         <v>1</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="15">
         <v>0.5</v>
       </c>
       <c r="M5" s="48"/>
@@ -5333,353 +5337,353 @@
       <c r="O5" s="48"/>
       <c r="P5" s="48"/>
       <c r="Q5" s="48"/>
-      <c r="R5" s="14">
+      <c r="R5" s="16">
         <f>SUM(K5:Q5)</f>
       </c>
-      <c r="S5" s="3"/>
+      <c r="S5" s="4"/>
     </row>
     <row customHeight="true" ht="15" r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
       <c r="M6" s="48"/>
       <c r="N6" s="48"/>
       <c r="O6" s="48"/>
       <c r="P6" s="48"/>
       <c r="Q6" s="48"/>
-      <c r="R6" s="14">
+      <c r="R6" s="16">
         <f>SUM(K6:Q6)</f>
       </c>
-      <c r="S6" s="3"/>
+      <c r="S6" s="4"/>
     </row>
     <row customHeight="true" ht="15" r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
       <c r="M7" s="48"/>
       <c r="N7" s="48"/>
       <c r="O7" s="48"/>
       <c r="P7" s="48"/>
       <c r="Q7" s="48"/>
-      <c r="R7" s="14">
+      <c r="R7" s="16">
         <f>SUM(K7:Q7)</f>
       </c>
-      <c r="S7" s="3"/>
+      <c r="S7" s="4"/>
     </row>
     <row customHeight="true" ht="15" r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
       <c r="M8" s="48"/>
       <c r="N8" s="48"/>
       <c r="O8" s="48"/>
       <c r="P8" s="48"/>
       <c r="Q8" s="48"/>
-      <c r="R8" s="14">
+      <c r="R8" s="16">
         <f>SUM(J8:Q8)</f>
       </c>
-      <c r="S8" s="3"/>
+      <c r="S8" s="4"/>
     </row>
     <row customHeight="true" ht="15" r="9">
-      <c r="A9" s="15" t="str">
+      <c r="A9" s="31" t="str">
         <v>小计</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="14">
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="16">
         <f>SUM(K4:K8)</f>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="16">
         <f>SUM(L4:L8)</f>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="16">
         <f>SUM(M4:M8)</f>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="16">
         <f>SUM(N4:N8)</f>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="16">
         <f>SUM(O4:O8)</f>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="16">
         <f>SUM(P4:P8)</f>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="16">
         <f>SUM(Q4:Q8)</f>
       </c>
-      <c r="R9" s="14">
+      <c r="R9" s="16">
         <f>SUM(R4:R8)</f>
       </c>
-      <c r="S9" s="3"/>
+      <c r="S9" s="4"/>
     </row>
     <row customHeight="true" ht="15" r="10">
-      <c r="A10" s="10" t="str">
+      <c r="A10" s="3" t="str">
         <v>任务完成情况</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="35" t="str">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="32" t="str">
         <v>上午</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="25" t="str">
+      <c r="E10" s="35"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="17" t="str">
         <v>09:00 ~ 10:00</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
       <c r="M10" s="49"/>
       <c r="N10" s="49"/>
       <c r="O10" s="49"/>
       <c r="P10" s="49"/>
       <c r="Q10" s="49"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
     </row>
     <row customHeight="true" ht="15" r="11">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="25" t="str">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="17" t="str">
         <v>10:00 ~ 11:00</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
       <c r="M11" s="49"/>
       <c r="N11" s="49"/>
       <c r="O11" s="49"/>
       <c r="P11" s="49"/>
       <c r="Q11" s="49"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
     </row>
     <row customHeight="true" ht="15" r="12">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="25" t="str">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="17" t="str">
         <v>11:00 ~ 12:00</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
       <c r="M12" s="49"/>
       <c r="N12" s="49"/>
       <c r="O12" s="49"/>
       <c r="P12" s="49"/>
       <c r="Q12" s="49"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
     </row>
     <row customHeight="true" ht="15" r="13">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="25" t="str">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="17" t="str">
         <v>下午</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25" t="str">
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17" t="str">
         <v>13:30 ~ 14:30</v>
       </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
       <c r="M13" s="49"/>
       <c r="N13" s="49"/>
       <c r="O13" s="49"/>
       <c r="P13" s="49"/>
       <c r="Q13" s="49"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
     </row>
     <row customHeight="true" ht="15" r="14">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25" t="str">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17" t="str">
         <v>14:30 ~ 15:30</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
       <c r="M14" s="49"/>
       <c r="N14" s="49"/>
       <c r="O14" s="49"/>
       <c r="P14" s="49"/>
       <c r="Q14" s="49"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
     </row>
     <row customHeight="true" ht="15" r="15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25" t="str">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17" t="str">
         <v>15:30 ~ 16:30</v>
       </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
       <c r="M15" s="49"/>
       <c r="N15" s="49"/>
       <c r="O15" s="49"/>
       <c r="P15" s="49"/>
       <c r="Q15" s="49"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
     </row>
     <row customHeight="true" ht="15" r="16">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25" t="str">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17" t="str">
         <v>16:30 ~ 17:30</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
       <c r="M16" s="49"/>
       <c r="N16" s="49"/>
       <c r="O16" s="49"/>
       <c r="P16" s="49"/>
       <c r="Q16" s="49"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
     </row>
     <row customHeight="true" ht="16" r="17">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="16" t="str">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="23" t="str">
         <v>加班</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17" t="str">
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24" t="str">
         <v>17:30 ~ 18:30</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="16"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="23"/>
     </row>
     <row customHeight="true" ht="16" r="18">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17" t="str">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24" t="str">
         <v>18:30 ~ 19:30</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
     </row>
     <row customHeight="true" ht="16" r="19">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17" t="str">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24" t="str">
         <v>19:30 ~ 20:30</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
       <c r="K19" s="39"/>
       <c r="L19" s="39"/>
       <c r="M19" s="39"/>
@@ -5687,8 +5691,8 @@
       <c r="O19" s="39"/>
       <c r="P19" s="39"/>
       <c r="Q19" s="39"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
     </row>
     <row customHeight="true" ht="16" r="20"/>
   </sheetData>
@@ -5723,7 +5727,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="true" errorStyle="stop" showErrorMessage="true" xr:uid="{BD23EA18-1E1B-4995-8C48-51AAA9866C26}">
+        <x14:dataValidation type="list" allowBlank="true" errorStyle="stop" showErrorMessage="true" xr:uid="{31A5DF72-FA15-4CE0-A157-6D9A8E6652F3}">
           <x14:formula1>
             <xm:f>'附表-2'!$A$1:$E$1</xm:f>
           </x14:formula1>
@@ -5754,52 +5758,52 @@
   <sheetData>
     <row customHeight="true" ht="23" r="1">
       <c r="A1" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
+        <v>6</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
     </row>
     <row customHeight="true" ht="23" r="3">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="59" t="str">
+      <c r="A4" s="56" t="str">
         <v>项目/任务CODE</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
     </row>
     <row customHeight="true" ht="23" r="6">
       <c r="A6" s="60" t="str">
@@ -5825,16 +5829,16 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="55" t="str">
+      <c r="A7" s="57" t="str">
         <v>BU</v>
       </c>
-      <c r="B7" s="55" t="str">
+      <c r="B7" s="57" t="str">
         <v>建设</v>
       </c>
-      <c r="C7" s="54" t="str">
+      <c r="C7" s="58" t="str">
         <v>01</v>
       </c>
-      <c r="D7" s="55" t="str">
+      <c r="D7" s="57" t="str">
         <v>经营治理</v>
       </c>
       <c r="E7" s="53" t="str">
@@ -6540,8 +6544,8 @@
     <row customHeight="true" ht="23" r="54">
       <c r="A54" s="51"/>
       <c r="B54" s="51"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="56"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="55"/>
       <c r="E54" s="53" t="str">
         <v>048</v>
       </c>
@@ -6555,10 +6559,10 @@
     <row customHeight="true" ht="23" r="55">
       <c r="A55" s="51"/>
       <c r="B55" s="51"/>
-      <c r="C55" s="54" t="str">
+      <c r="C55" s="58" t="str">
         <v>02</v>
       </c>
-      <c r="D55" s="55" t="str">
+      <c r="D55" s="57" t="str">
         <v>通用服务</v>
       </c>
       <c r="E55" s="53" t="str">
@@ -6679,13 +6683,13 @@
     <row customHeight="true" ht="23" r="63">
       <c r="A63" s="51"/>
       <c r="B63" s="51"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="56"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="55"/>
       <c r="E63" s="53" t="str">
         <v>009</v>
       </c>
       <c r="F63" s="50" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63" s="50">
         <f>$A$7&amp;$C$55&amp;E63</f>
@@ -6712,8 +6716,8 @@
     </row>
     <row customHeight="true" ht="23" r="65">
       <c r="A65" s="51"/>
-      <c r="B65" s="56"/>
-      <c r="C65" s="54" t="str">
+      <c r="B65" s="55"/>
+      <c r="C65" s="58" t="str">
         <v>04</v>
       </c>
       <c r="D65" s="50" t="str">
@@ -6730,16 +6734,16 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="66">
-      <c r="A66" s="55" t="str">
+      <c r="A66" s="57" t="str">
         <v>OP</v>
       </c>
-      <c r="B66" s="55" t="str">
+      <c r="B66" s="57" t="str">
         <v>运维</v>
       </c>
-      <c r="C66" s="54" t="str">
+      <c r="C66" s="58" t="str">
         <v>01</v>
       </c>
-      <c r="D66" s="55" t="str">
+      <c r="D66" s="57" t="str">
         <v>经营类</v>
       </c>
       <c r="E66" s="53" t="str">
@@ -6755,10 +6759,10 @@
     <row customHeight="true" ht="23" r="67">
       <c r="A67" s="51"/>
       <c r="B67" s="51"/>
-      <c r="C67" s="54" t="str">
+      <c r="C67" s="58" t="str">
         <v>02</v>
       </c>
-      <c r="D67" s="55" t="str">
+      <c r="D67" s="57" t="str">
         <v>办公类</v>
       </c>
       <c r="E67" s="53" t="str">
@@ -7014,10 +7018,10 @@
     <row customHeight="true" ht="23" r="84">
       <c r="A84" s="51"/>
       <c r="B84" s="51"/>
-      <c r="C84" s="54" t="str">
+      <c r="C84" s="58" t="str">
         <v>03</v>
       </c>
-      <c r="D84" s="55" t="str">
+      <c r="D84" s="57" t="str">
         <v>财务类</v>
       </c>
       <c r="E84" s="53" t="str">
@@ -7198,8 +7202,8 @@
     <row customHeight="true" ht="23" r="96">
       <c r="A96" s="51"/>
       <c r="B96" s="51"/>
-      <c r="C96" s="57"/>
-      <c r="D96" s="56"/>
+      <c r="C96" s="54"/>
+      <c r="D96" s="55"/>
       <c r="E96" s="53" t="str">
         <v>013</v>
       </c>
@@ -7213,10 +7217,10 @@
     <row customHeight="true" ht="23" r="97">
       <c r="A97" s="51"/>
       <c r="B97" s="51"/>
-      <c r="C97" s="54" t="str">
+      <c r="C97" s="58" t="str">
         <v>04</v>
       </c>
-      <c r="D97" s="55" t="str">
+      <c r="D97" s="57" t="str">
         <v>人力类</v>
       </c>
       <c r="E97" s="53" t="str">
@@ -7277,8 +7281,8 @@
     <row customHeight="true" ht="23" r="101">
       <c r="A101" s="51"/>
       <c r="B101" s="51"/>
-      <c r="C101" s="57"/>
-      <c r="D101" s="56"/>
+      <c r="C101" s="54"/>
+      <c r="D101" s="55"/>
       <c r="E101" s="53" t="str">
         <v>005</v>
       </c>
@@ -7292,10 +7296,10 @@
     <row customHeight="true" ht="23" r="102">
       <c r="A102" s="51"/>
       <c r="B102" s="51"/>
-      <c r="C102" s="54" t="str">
+      <c r="C102" s="58" t="str">
         <v>05</v>
       </c>
-      <c r="D102" s="55" t="str">
+      <c r="D102" s="57" t="str">
         <v>供应生产</v>
       </c>
       <c r="E102" s="53" t="str">
@@ -7326,8 +7330,8 @@
     <row customHeight="true" ht="23" r="104">
       <c r="A104" s="51"/>
       <c r="B104" s="51"/>
-      <c r="C104" s="57"/>
-      <c r="D104" s="56"/>
+      <c r="C104" s="54"/>
+      <c r="D104" s="55"/>
       <c r="E104" s="53" t="str">
         <v>003</v>
       </c>
@@ -7341,10 +7345,10 @@
     <row customHeight="true" ht="23" r="105">
       <c r="A105" s="51"/>
       <c r="B105" s="51"/>
-      <c r="C105" s="54" t="str">
+      <c r="C105" s="58" t="str">
         <v>06</v>
       </c>
-      <c r="D105" s="55" t="str">
+      <c r="D105" s="57" t="str">
         <v>销售物流</v>
       </c>
       <c r="E105" s="53" t="str">
@@ -7405,8 +7409,8 @@
     <row customHeight="true" ht="23" r="109">
       <c r="A109" s="51"/>
       <c r="B109" s="51"/>
-      <c r="C109" s="57"/>
-      <c r="D109" s="56"/>
+      <c r="C109" s="54"/>
+      <c r="D109" s="55"/>
       <c r="E109" s="53" t="str">
         <v>005</v>
       </c>
@@ -7420,10 +7424,10 @@
     <row customHeight="true" ht="23" r="110">
       <c r="A110" s="51"/>
       <c r="B110" s="51"/>
-      <c r="C110" s="54" t="str">
+      <c r="C110" s="58" t="str">
         <v>07</v>
       </c>
-      <c r="D110" s="55" t="str">
+      <c r="D110" s="57" t="str">
         <v>智能制造</v>
       </c>
       <c r="E110" s="53" t="str">
@@ -7439,8 +7443,8 @@
     <row customHeight="true" ht="23" r="111">
       <c r="A111" s="51"/>
       <c r="B111" s="51"/>
-      <c r="C111" s="57"/>
-      <c r="D111" s="56"/>
+      <c r="C111" s="54"/>
+      <c r="D111" s="55"/>
       <c r="E111" s="53" t="str">
         <v>002</v>
       </c>
@@ -7454,10 +7458,10 @@
     <row customHeight="true" ht="23" r="112">
       <c r="A112" s="51"/>
       <c r="B112" s="51"/>
-      <c r="C112" s="54" t="str">
+      <c r="C112" s="58" t="str">
         <v>08</v>
       </c>
-      <c r="D112" s="55" t="str">
+      <c r="D112" s="57" t="str">
         <v>数据应用</v>
       </c>
       <c r="E112" s="53" t="str">
@@ -7479,7 +7483,7 @@
         <v>002</v>
       </c>
       <c r="F113" s="50" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G113" s="50">
         <f>$A$66&amp;$C$112&amp;E113</f>
@@ -7593,8 +7597,8 @@
     <row customHeight="true" ht="23" r="121">
       <c r="A121" s="51"/>
       <c r="B121" s="51"/>
-      <c r="C121" s="57"/>
-      <c r="D121" s="56"/>
+      <c r="C121" s="54"/>
+      <c r="D121" s="55"/>
       <c r="E121" s="53" t="str">
         <v>010</v>
       </c>
@@ -7608,10 +7612,10 @@
     <row customHeight="true" ht="23" r="122">
       <c r="A122" s="51"/>
       <c r="B122" s="51"/>
-      <c r="C122" s="54" t="str">
+      <c r="C122" s="58" t="str">
         <v>09</v>
       </c>
-      <c r="D122" s="55" t="str">
+      <c r="D122" s="57" t="str">
         <v>基础设施及桌面</v>
       </c>
       <c r="E122" s="53" t="str">
@@ -7762,10 +7766,10 @@
     <row customHeight="true" ht="23" r="132">
       <c r="A132" s="51"/>
       <c r="B132" s="51"/>
-      <c r="C132" s="54" t="str">
+      <c r="C132" s="58" t="str">
         <v>10</v>
       </c>
-      <c r="D132" s="55" t="str">
+      <c r="D132" s="57" t="str">
         <v>通用技术平台</v>
       </c>
       <c r="E132" s="53" t="str">
@@ -7826,8 +7830,8 @@
     <row customHeight="true" ht="23" r="136">
       <c r="A136" s="51"/>
       <c r="B136" s="51"/>
-      <c r="C136" s="57"/>
-      <c r="D136" s="56"/>
+      <c r="C136" s="54"/>
+      <c r="D136" s="55"/>
       <c r="E136" s="53" t="str">
         <v>005</v>
       </c>
@@ -7841,10 +7845,10 @@
     <row customHeight="true" ht="23" r="137">
       <c r="A137" s="51"/>
       <c r="B137" s="51"/>
-      <c r="C137" s="54" t="str">
+      <c r="C137" s="58" t="str">
         <v>11</v>
       </c>
-      <c r="D137" s="55" t="str">
+      <c r="D137" s="57" t="str">
         <v>其他</v>
       </c>
       <c r="E137" s="53" t="str">
@@ -7911,7 +7915,7 @@
         <v>005</v>
       </c>
       <c r="F141" s="50" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G141" s="50">
         <f>$A$66&amp;$C$137&amp;E141</f>
@@ -7933,9 +7937,9 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="143">
-      <c r="A143" s="56"/>
-      <c r="B143" s="56"/>
-      <c r="C143" s="57" t="str">
+      <c r="A143" s="55"/>
+      <c r="B143" s="55"/>
+      <c r="C143" s="54" t="str">
         <v>12</v>
       </c>
       <c r="D143" s="50" t="str">
@@ -7956,7 +7960,7 @@
       <c r="B144" s="51" t="str">
         <v>营销</v>
       </c>
-      <c r="C144" s="57" t="str">
+      <c r="C144" s="54" t="str">
         <v>01</v>
       </c>
       <c r="D144" s="50" t="str">
@@ -7973,10 +7977,10 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="145">
-      <c r="A145" s="55" t="str">
+      <c r="A145" s="57" t="str">
         <v>GE</v>
       </c>
-      <c r="B145" s="55" t="str">
+      <c r="B145" s="57" t="str">
         <v>通用</v>
       </c>
       <c r="C145" s="53" t="str">
@@ -8065,7 +8069,7 @@
         <v>001</v>
       </c>
       <c r="F149" s="50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G149" s="50">
         <f>$A$145&amp;C149&amp;E149</f>
@@ -8093,10 +8097,10 @@
     <row customHeight="true" ht="23" r="151">
       <c r="A151" s="51"/>
       <c r="B151" s="51"/>
-      <c r="C151" s="54" t="str">
+      <c r="C151" s="58" t="str">
         <v>07</v>
       </c>
-      <c r="D151" s="55" t="str">
+      <c r="D151" s="57" t="str">
         <v>集团工作</v>
       </c>
       <c r="E151" s="53" t="str">
@@ -8296,7 +8300,7 @@
         <v>营销支持</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="62" t="str">
         <v>请假</v>
@@ -8953,7 +8957,7 @@
         <v>石材ERP一期建设项目（石材工厂ERP和石材销售一体化）</v>
       </c>
       <c r="B45" s="50" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C45" s="50" t="str">
         <v>营销支持</v>
@@ -9480,7 +9484,7 @@
         <v>----</v>
       </c>
       <c r="B76" s="50" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C76" s="50" t="str">
         <v>营销支持</v>
